--- a/数据规则.xlsx
+++ b/数据规则.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\偿付能力数据库\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\偿付能力数据库\Solvency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B32C0F-170D-498E-B947-D8165AD276B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32130CBF-FDD5-4E68-BEC6-9AC5B308E61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3D08F682-3E6C-41D7-AACF-44205A7FE12E}"/>
+    <workbookView xWindow="1440" yWindow="7485" windowWidth="16800" windowHeight="12360" activeTab="4" xr2:uid="{3D08F682-3E6C-41D7-AACF-44205A7FE12E}"/>
   </bookViews>
   <sheets>
     <sheet name="字段空与非空" sheetId="1" r:id="rId1"/>
     <sheet name="筛选用" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId3"/>
+    <sheet name="豁免穿透资产类型" sheetId="8" r:id="rId3"/>
     <sheet name="存款交易对手" sheetId="6" r:id="rId4"/>
     <sheet name="数据类型" sheetId="2" r:id="rId5"/>
     <sheet name="字段取值" sheetId="3" r:id="rId6"/>
@@ -27,6 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">筛选用!$A$1:$CO$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">数据类型!$A$1:$E$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">字段空与非空!$A$1:$BO$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">字段取值!$A$1:$T$93</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1581" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="672">
   <si>
     <t>资产简称</t>
   </si>
@@ -2266,93 +2267,10 @@
     <t>发行银行核心一级资本充足率</t>
   </si>
   <si>
-    <t>开户行</t>
-  </si>
-  <si>
-    <t>银行类型</t>
-  </si>
-  <si>
-    <t>资本充足率（%）</t>
-  </si>
-  <si>
-    <t>会计计量方法</t>
-  </si>
-  <si>
-    <t>存款金额</t>
-  </si>
-  <si>
-    <t>利率</t>
-  </si>
-  <si>
-    <t>存款期限</t>
-  </si>
-  <si>
-    <t>起息日</t>
-  </si>
-  <si>
-    <t>到期日</t>
-  </si>
-  <si>
-    <t>本息给付方式</t>
-  </si>
-  <si>
-    <t>存款类型</t>
-  </si>
-  <si>
-    <t>存款机构类型</t>
-  </si>
-  <si>
-    <t>商业银行资本充足率</t>
-  </si>
-  <si>
-    <t>是否境内资产</t>
-  </si>
-  <si>
-    <t>境外资产币种</t>
-  </si>
-  <si>
-    <t>到期期限</t>
-  </si>
-  <si>
-    <t>现金流合计</t>
-  </si>
-  <si>
-    <t>生成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>资产简称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开户行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买成本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存款金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>存款银行类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行资本充足率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资本充足率（%）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>'</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2365,10 +2283,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>资产五大类分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>社会保障基金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2406,6 +2320,66 @@
   </si>
   <si>
     <t>资产识别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豁免穿透资产类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表层资产类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>境外权益类资产（投资性房地产）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产大类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先股、永续债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融衍生品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>境外固收</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>境外权益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>债券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>再保</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非投资资产</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2532,7 +2506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2771,6 +2745,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2783,7 +2768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2926,6 +2911,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31462,14 +31450,14 @@
         <v>0</v>
       </c>
       <c r="AO76" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP76" t="str">
         <f>AO76&amp;AN76&amp;AO76</f>
         <v>'资产简称'</v>
       </c>
       <c r="AQ76" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR76" t="str">
         <f>AP76&amp;AQ76</f>
@@ -31485,14 +31473,14 @@
         <v>1</v>
       </c>
       <c r="AO77" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP77" t="str">
         <f t="shared" ref="AP77:AP100" si="0">AO77&amp;AN77&amp;AO77</f>
         <v>'资产全称'</v>
       </c>
       <c r="AQ77" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR77" t="str">
         <f t="shared" ref="AR77:AR100" si="1">AP77&amp;AQ77</f>
@@ -31508,14 +31496,14 @@
         <v>2</v>
       </c>
       <c r="AO78" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP78" t="str">
         <f t="shared" si="0"/>
         <v>'资产大类'</v>
       </c>
       <c r="AQ78" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR78" t="str">
         <f t="shared" si="1"/>
@@ -31531,14 +31519,14 @@
         <v>3</v>
       </c>
       <c r="AO79" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP79" t="str">
         <f t="shared" si="0"/>
         <v>'资产类型'</v>
       </c>
       <c r="AQ79" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR79" t="str">
         <f t="shared" si="1"/>
@@ -31554,14 +31542,14 @@
         <v>5</v>
       </c>
       <c r="AO80" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP80" t="str">
         <f t="shared" si="0"/>
         <v>'交易对手'</v>
       </c>
       <c r="AQ80" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR80" t="str">
         <f t="shared" si="1"/>
@@ -31577,14 +31565,14 @@
         <v>7</v>
       </c>
       <c r="AO81" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP81" t="str">
         <f t="shared" si="0"/>
         <v>'购买成本'</v>
       </c>
       <c r="AQ81" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR81" t="str">
         <f t="shared" si="1"/>
@@ -31600,14 +31588,14 @@
         <v>8</v>
       </c>
       <c r="AO82" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP82" t="str">
         <f t="shared" si="0"/>
         <v>'认可价值'</v>
       </c>
       <c r="AQ82" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR82" t="str">
         <f t="shared" si="1"/>
@@ -31623,14 +31611,14 @@
         <v>9</v>
       </c>
       <c r="AO83" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP83" t="str">
         <f t="shared" si="0"/>
         <v>'应收利息'</v>
       </c>
       <c r="AQ83" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR83" t="str">
         <f t="shared" si="1"/>
@@ -31646,14 +31634,14 @@
         <v>233</v>
       </c>
       <c r="AO84" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP84" t="str">
         <f t="shared" si="0"/>
         <v>'账户'</v>
       </c>
       <c r="AQ84" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR84" t="str">
         <f t="shared" si="1"/>
@@ -31669,14 +31657,14 @@
         <v>47</v>
       </c>
       <c r="AO85" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP85" t="str">
         <f t="shared" si="0"/>
         <v>'存款银行类型'</v>
       </c>
       <c r="AQ85" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR85" t="str">
         <f t="shared" si="1"/>
@@ -31692,14 +31680,14 @@
         <v>48</v>
       </c>
       <c r="AO86" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP86" t="str">
         <f t="shared" si="0"/>
         <v>'银行资本充足率'</v>
       </c>
       <c r="AQ86" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR86" t="str">
         <f t="shared" si="1"/>
@@ -31715,14 +31703,14 @@
         <v>64</v>
       </c>
       <c r="AO87" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP87" t="str">
         <f t="shared" si="0"/>
         <v>'资产五大类分类'</v>
       </c>
       <c r="AQ87" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR87" t="str">
         <f t="shared" si="1"/>
@@ -31735,14 +31723,14 @@
     </row>
     <row r="88" spans="40:45" x14ac:dyDescent="0.2">
       <c r="AO88" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP88" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="AQ88" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR88" t="str">
         <f t="shared" si="1"/>
@@ -31751,14 +31739,14 @@
     </row>
     <row r="89" spans="40:45" x14ac:dyDescent="0.2">
       <c r="AO89" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP89" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="AQ89" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR89" t="str">
         <f t="shared" si="1"/>
@@ -31767,14 +31755,14 @@
     </row>
     <row r="90" spans="40:45" x14ac:dyDescent="0.2">
       <c r="AO90" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP90" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="AQ90" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR90" t="str">
         <f t="shared" si="1"/>
@@ -31786,14 +31774,14 @@
         <v>0</v>
       </c>
       <c r="AO91" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP91" t="str">
         <f t="shared" si="0"/>
         <v>'资产简称'</v>
       </c>
       <c r="AQ91" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR91" t="str">
         <f t="shared" si="1"/>
@@ -31809,14 +31797,14 @@
         <v>1</v>
       </c>
       <c r="AO92" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP92" t="str">
         <f t="shared" si="0"/>
         <v>'资产全称'</v>
       </c>
       <c r="AQ92" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR92" t="str">
         <f t="shared" si="1"/>
@@ -31832,14 +31820,14 @@
         <v>2</v>
       </c>
       <c r="AO93" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP93" t="str">
         <f t="shared" si="0"/>
         <v>'资产大类'</v>
       </c>
       <c r="AQ93" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR93" t="str">
         <f t="shared" si="1"/>
@@ -31855,14 +31843,14 @@
         <v>3</v>
       </c>
       <c r="AO94" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP94" t="str">
         <f t="shared" si="0"/>
         <v>'资产类型'</v>
       </c>
       <c r="AQ94" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR94" t="str">
         <f t="shared" si="1"/>
@@ -31878,14 +31866,14 @@
         <v>5</v>
       </c>
       <c r="AO95" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP95" t="str">
         <f t="shared" si="0"/>
         <v>'交易对手'</v>
       </c>
       <c r="AQ95" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR95" t="str">
         <f t="shared" si="1"/>
@@ -31901,14 +31889,14 @@
         <v>7</v>
       </c>
       <c r="AO96" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP96" t="str">
         <f t="shared" si="0"/>
         <v>'购买成本'</v>
       </c>
       <c r="AQ96" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR96" t="str">
         <f t="shared" si="1"/>
@@ -31924,14 +31912,14 @@
         <v>8</v>
       </c>
       <c r="AO97" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP97" t="str">
         <f t="shared" si="0"/>
         <v>'认可价值'</v>
       </c>
       <c r="AQ97" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR97" t="str">
         <f t="shared" si="1"/>
@@ -31947,14 +31935,14 @@
         <v>9</v>
       </c>
       <c r="AO98" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP98" t="str">
         <f t="shared" si="0"/>
         <v>'应收利息'</v>
       </c>
       <c r="AQ98" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR98" t="str">
         <f t="shared" si="1"/>
@@ -31970,14 +31958,14 @@
         <v>233</v>
       </c>
       <c r="AO99" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP99" t="str">
         <f t="shared" si="0"/>
         <v>'账户'</v>
       </c>
       <c r="AQ99" t="s">
-        <v>670</v>
+        <v>645</v>
       </c>
       <c r="AR99" t="str">
         <f t="shared" si="1"/>
@@ -31993,7 +31981,7 @@
         <v>64</v>
       </c>
       <c r="AO100" s="46" t="s">
-        <v>669</v>
+        <v>644</v>
       </c>
       <c r="AP100" t="str">
         <f t="shared" si="0"/>
@@ -32024,195 +32012,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309BF2FC-10F7-467C-BC44-9E4E3CF455A2}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>643</v>
-      </c>
-      <c r="D2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>660</v>
-      </c>
-      <c r="D5" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>663</v>
-      </c>
-      <c r="B6" t="s">
-        <v>664</v>
-      </c>
-      <c r="D6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" t="s">
-        <v>660</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>665</v>
-      </c>
-      <c r="B10" t="s">
-        <v>666</v>
-      </c>
-      <c r="D10" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>667</v>
-      </c>
-      <c r="B11" t="s">
-        <v>668</v>
-      </c>
-      <c r="D11" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>672</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>659</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32875,12 +32742,12 @@
         <v>616</v>
       </c>
       <c r="B81" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="B82" t="s">
         <v>617</v>
@@ -32904,8 +32771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7759C919-160B-4268-AECB-5C44394C2A9C}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32918,7 +32785,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>155</v>
@@ -32962,7 +32829,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>679</v>
+        <v>653</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>155</v>
@@ -33065,7 +32932,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>680</v>
+        <v>654</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>155</v>
@@ -33087,7 +32954,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>681</v>
+        <v>655</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>155</v>
@@ -33109,7 +32976,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>658</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>155</v>
@@ -33505,7 +33372,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>674</v>
+        <v>648</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>155</v>
@@ -33516,7 +33383,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>678</v>
+        <v>652</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>155</v>
@@ -33746,7 +33613,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" s="32" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="C67" s="47" t="s">
         <v>255</v>
@@ -33763,8 +33630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB8A14-C944-493C-A68B-C2615AC70791}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -34441,7 +34308,7 @@
         <v>178</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>89</v>
+        <v>659</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>177</v>
@@ -35020,6 +34887,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T93" xr:uid="{0EFB8A14-C944-493C-A68B-C2615AC70791}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -35488,20 +35356,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BD10BE-F53A-49BA-B110-1C1CA0652481}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>337</v>
       </c>
       <c r="B1" t="s">
-        <v>676</v>
+        <v>650</v>
       </c>
       <c r="C1" t="s">
         <v>355</v>
@@ -35521,8 +35389,14 @@
       <c r="H1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>660</v>
+      </c>
+      <c r="J1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>339</v>
       </c>
@@ -35547,8 +35421,14 @@
       <c r="H2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I2" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>338</v>
       </c>
@@ -35573,8 +35453,14 @@
       <c r="H3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>340</v>
       </c>
@@ -35599,8 +35485,14 @@
       <c r="H4" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I4" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>341</v>
       </c>
@@ -35625,8 +35517,14 @@
       <c r="H5" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>342</v>
       </c>
@@ -35651,8 +35549,14 @@
       <c r="H6" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>343</v>
       </c>
@@ -35677,8 +35581,14 @@
       <c r="H7" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J7" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -35703,8 +35613,14 @@
       <c r="H8" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>345</v>
       </c>
@@ -35729,8 +35645,14 @@
       <c r="H9" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>346</v>
       </c>
@@ -35755,8 +35677,14 @@
       <c r="H10" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>347</v>
       </c>
@@ -35781,8 +35709,14 @@
       <c r="H11" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>348</v>
       </c>
@@ -35807,8 +35741,14 @@
       <c r="H12" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" s="48" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>349</v>
       </c>
@@ -35833,8 +35773,14 @@
       <c r="H13" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>350</v>
       </c>
@@ -35859,10 +35805,16 @@
       <c r="H14" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>675</v>
+        <v>649</v>
       </c>
       <c r="B15" t="s">
         <v>459</v>
@@ -35885,8 +35837,14 @@
       <c r="H15" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>460</v>
       </c>
@@ -35908,8 +35866,14 @@
       <c r="H16" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>463</v>
       </c>
@@ -35931,8 +35895,14 @@
       <c r="H17" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>461</v>
       </c>
@@ -35954,8 +35924,14 @@
       <c r="H18" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>462</v>
       </c>
@@ -35977,8 +35953,14 @@
       <c r="H19" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>464</v>
       </c>
@@ -36000,10 +35982,16 @@
       <c r="H20" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>677</v>
+        <v>651</v>
       </c>
       <c r="C21" t="s">
         <v>375</v>
@@ -36023,8 +36011,14 @@
       <c r="H21" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>376</v>
       </c>
@@ -36043,8 +36037,14 @@
       <c r="H22" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>377</v>
       </c>
@@ -36063,8 +36063,14 @@
       <c r="H23" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>378</v>
       </c>
@@ -36083,8 +36089,14 @@
       <c r="H24" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>379</v>
       </c>
@@ -36103,8 +36115,14 @@
       <c r="H25" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>380</v>
       </c>
@@ -36123,8 +36141,14 @@
       <c r="H26" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I26" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>381</v>
       </c>
@@ -36143,8 +36167,14 @@
       <c r="H27" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>382</v>
       </c>
@@ -36163,8 +36193,14 @@
       <c r="H28" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>383</v>
       </c>
@@ -36183,8 +36219,14 @@
       <c r="H29" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>384</v>
       </c>
@@ -36203,8 +36245,14 @@
       <c r="H30" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>385</v>
       </c>
@@ -36223,8 +36271,14 @@
       <c r="H31" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>386</v>
       </c>
@@ -36243,8 +36297,14 @@
       <c r="H32" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="33" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>387</v>
       </c>
@@ -36263,8 +36323,14 @@
       <c r="H33" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="34" spans="3:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>388</v>
       </c>
@@ -36283,8 +36349,14 @@
       <c r="H34" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="35" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>389</v>
       </c>
@@ -36303,8 +36375,14 @@
       <c r="H35" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="36" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>390</v>
       </c>
@@ -36323,8 +36401,14 @@
       <c r="H36" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="37" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>391</v>
       </c>
@@ -36343,8 +36427,14 @@
       <c r="H37" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="38" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D38" s="35" t="s">
         <v>101</v>
       </c>
@@ -36360,8 +36450,14 @@
       <c r="H38" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="39" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D39" s="35" t="s">
         <v>102</v>
       </c>
@@ -36377,8 +36473,14 @@
       <c r="H39" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="40" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D40" s="35" t="s">
         <v>103</v>
       </c>
@@ -36394,8 +36496,14 @@
       <c r="H40" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D41" s="35" t="s">
         <v>104</v>
       </c>
@@ -36411,8 +36519,14 @@
       <c r="H41" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="42" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D42" s="35" t="s">
         <v>105</v>
       </c>
@@ -36428,8 +36542,14 @@
       <c r="H42" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="43" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D43" s="35" t="s">
         <v>106</v>
       </c>
@@ -36445,8 +36565,14 @@
       <c r="H43" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="44" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D44" s="35" t="s">
         <v>107</v>
       </c>
@@ -36462,8 +36588,14 @@
       <c r="H44" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="45" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D45" s="35" t="s">
         <v>108</v>
       </c>
@@ -36479,8 +36611,14 @@
       <c r="H45" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="46" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D46" s="35" t="s">
         <v>109</v>
       </c>
@@ -36496,21 +36634,39 @@
       <c r="H46" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D47" s="35" t="s">
         <v>110</v>
       </c>
       <c r="E47" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D48" s="35" t="s">
         <v>111</v>
       </c>
       <c r="E48" t="s">
         <v>470</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
@@ -36876,5 +37032,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据规则.xlsx
+++ b/数据规则.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\偿付能力数据库\Solvency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\偿二代数据库\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32130CBF-FDD5-4E68-BEC6-9AC5B308E61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2022BE95-1300-4452-A2C8-1A77E2C8599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="7485" windowWidth="16800" windowHeight="12360" activeTab="4" xr2:uid="{3D08F682-3E6C-41D7-AACF-44205A7FE12E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3D08F682-3E6C-41D7-AACF-44205A7FE12E}"/>
   </bookViews>
   <sheets>
     <sheet name="字段空与非空" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,16 @@
     <sheet name="字段取值" sheetId="3" r:id="rId6"/>
     <sheet name="k1,k2" sheetId="4" r:id="rId7"/>
     <sheet name="其他" sheetId="5" r:id="rId8"/>
+    <sheet name="模糊字段" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'k1,k2'!$A$1:$E$73</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">筛选用!$A$1:$CO$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">数据类型!$A$1:$E$66</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">字段空与非空!$A$1:$BO$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">字段取值!$A$1:$T$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">字段取值!$A$1:$T$95</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="686">
   <si>
     <t>资产简称</t>
   </si>
@@ -260,10 +261,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>无固定期限资产债券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>未上市股权</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2381,6 +2378,64 @@
   <si>
     <t>存款</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农村信用合作社</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金互助社</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市信用合作社</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市信用社</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>村镇银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五大类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动性资产</t>
+  </si>
+  <si>
+    <t>固收类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产五大类分类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币市场类保险资管产品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>现金管理类商业银行理财产品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无固定期限资本债券</t>
+  </si>
+  <si>
+    <t>无固定期限资本债券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2768,7 +2823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2914,6 +2969,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3234,9 +3292,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCB0B65-D6C6-44A6-B217-D08DBDCEB727}">
   <dimension ref="A1:BO93"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH1" sqref="AH1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3328,7 +3386,7 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
@@ -3352,37 +3410,37 @@
         <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AB1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AE1" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="AI1" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="AF1" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="AK1" s="10" t="s">
         <v>34</v>
@@ -3397,7 +3455,7 @@
         <v>37</v>
       </c>
       <c r="AO1" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AP1" s="9" t="s">
         <v>39</v>
@@ -3439,10 +3497,10 @@
         <v>51</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BD1" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BE1" s="9" t="s">
         <v>54</v>
@@ -3466,7 +3524,7 @@
         <v>60</v>
       </c>
       <c r="BL1" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="BM1" s="9" t="s">
         <v>62</v>
@@ -4040,7 +4098,7 @@
     </row>
     <row r="6" spans="1:67" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="40" t="s">
-        <v>69</v>
+        <v>684</v>
       </c>
       <c r="B6" s="41">
         <v>1</v>
@@ -4168,7 +4226,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A7" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4323,7 +4381,7 @@
     </row>
     <row r="8" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4472,7 +4530,7 @@
     </row>
     <row r="9" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A9" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4621,7 +4679,7 @@
     </row>
     <row r="10" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4779,7 +4837,7 @@
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A11" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4937,7 +4995,7 @@
     </row>
     <row r="12" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A12" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5095,7 +5153,7 @@
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5253,7 +5311,7 @@
     </row>
     <row r="14" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5411,7 +5469,7 @@
     </row>
     <row r="15" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5563,7 +5621,7 @@
     </row>
     <row r="16" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A16" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5715,7 +5773,7 @@
     </row>
     <row r="17" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5861,7 +5919,7 @@
     </row>
     <row r="18" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -6004,7 +6062,7 @@
     </row>
     <row r="19" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -6159,7 +6217,7 @@
     </row>
     <row r="20" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6311,7 +6369,7 @@
     </row>
     <row r="21" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6457,7 +6515,7 @@
     </row>
     <row r="22" spans="1:67" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6606,7 +6664,7 @@
     </row>
     <row r="23" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6755,7 +6813,7 @@
     </row>
     <row r="24" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6904,7 +6962,7 @@
     </row>
     <row r="25" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -7035,7 +7093,7 @@
     </row>
     <row r="26" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A26" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7187,7 +7245,7 @@
     </row>
     <row r="27" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A27" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7345,7 +7403,7 @@
     </row>
     <row r="28" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7500,7 +7558,7 @@
     </row>
     <row r="29" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7649,7 +7707,7 @@
     </row>
     <row r="30" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -7795,7 +7853,7 @@
     </row>
     <row r="31" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7941,7 +7999,7 @@
     </row>
     <row r="32" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8087,7 +8145,7 @@
     </row>
     <row r="33" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A33" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8233,7 +8291,7 @@
     </row>
     <row r="34" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A34" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8391,7 +8449,7 @@
     </row>
     <row r="35" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8537,7 +8595,7 @@
     </row>
     <row r="36" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8686,7 +8744,7 @@
     </row>
     <row r="37" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -8838,7 +8896,7 @@
     </row>
     <row r="38" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8990,7 +9048,7 @@
     </row>
     <row r="39" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -9142,7 +9200,7 @@
     </row>
     <row r="40" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -9294,7 +9352,7 @@
     </row>
     <row r="41" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -9446,7 +9504,7 @@
     </row>
     <row r="42" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A42" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -9598,7 +9656,7 @@
     </row>
     <row r="43" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -9756,7 +9814,7 @@
     </row>
     <row r="44" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -9914,7 +9972,7 @@
     </row>
     <row r="45" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -10072,7 +10130,7 @@
     </row>
     <row r="46" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A46" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -10230,7 +10288,7 @@
     </row>
     <row r="47" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -10388,7 +10446,7 @@
     </row>
     <row r="48" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A48" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -10546,7 +10604,7 @@
     </row>
     <row r="49" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A49" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -10704,7 +10762,7 @@
     </row>
     <row r="50" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -10862,7 +10920,7 @@
     </row>
     <row r="51" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A51" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -11020,7 +11078,7 @@
     </row>
     <row r="52" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A52" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -11178,7 +11236,7 @@
     </row>
     <row r="53" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A53" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -11336,7 +11394,7 @@
     </row>
     <row r="54" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -11494,7 +11552,7 @@
     </row>
     <row r="55" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A55" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -11652,7 +11710,7 @@
     </row>
     <row r="56" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A56" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -11810,7 +11868,7 @@
     </row>
     <row r="57" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A57" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -11968,7 +12026,7 @@
     </row>
     <row r="58" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A58" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -12126,7 +12184,7 @@
     </row>
     <row r="59" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -12284,7 +12342,7 @@
     </row>
     <row r="60" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A60" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -12436,7 +12494,7 @@
     </row>
     <row r="61" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A61" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -12588,7 +12646,7 @@
     </row>
     <row r="62" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A62" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -12740,7 +12798,7 @@
     </row>
     <row r="63" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A63" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -12886,7 +12944,7 @@
     </row>
     <row r="64" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A64" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -13032,7 +13090,7 @@
     </row>
     <row r="65" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A65" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -13190,7 +13248,7 @@
     </row>
     <row r="66" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A66" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -13348,7 +13406,7 @@
     </row>
     <row r="67" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A67" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -13506,7 +13564,7 @@
     </row>
     <row r="68" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A68" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -13664,7 +13722,7 @@
     </row>
     <row r="69" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A69" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -13813,7 +13871,7 @@
     </row>
     <row r="70" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A70" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -13962,7 +14020,7 @@
     </row>
     <row r="71" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A71" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -14108,7 +14166,7 @@
     </row>
     <row r="72" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A72" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -14260,7 +14318,7 @@
     </row>
     <row r="73" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -14406,7 +14464,7 @@
     </row>
     <row r="74" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A74" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -14555,7 +14613,7 @@
     </row>
     <row r="75" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A75" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -14704,7 +14762,7 @@
     </row>
     <row r="76" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A76" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -14853,7 +14911,7 @@
     </row>
     <row r="77" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A77" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -15002,7 +15060,7 @@
     </row>
     <row r="78" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A78" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -15151,7 +15209,7 @@
     </row>
     <row r="79" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A79" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -15300,7 +15358,7 @@
     </row>
     <row r="80" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A80" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -15449,7 +15507,7 @@
     </row>
     <row r="81" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A81" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -15598,7 +15656,7 @@
     </row>
     <row r="82" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A82" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -15747,7 +15805,7 @@
     </row>
     <row r="83" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A83" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -15896,7 +15954,7 @@
     </row>
     <row r="84" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A84" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -16045,7 +16103,7 @@
     </row>
     <row r="85" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A85" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -16194,7 +16252,7 @@
     </row>
     <row r="86" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A86" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -16340,7 +16398,7 @@
     </row>
     <row r="87" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A87" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -16486,7 +16544,7 @@
     </row>
     <row r="88" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A88" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -16632,7 +16690,7 @@
     </row>
     <row r="89" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A89" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -16781,7 +16839,7 @@
     </row>
     <row r="90" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A90" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -16930,7 +16988,7 @@
     </row>
     <row r="91" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A91" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -17076,7 +17134,7 @@
     </row>
     <row r="92" spans="1:67" x14ac:dyDescent="0.2">
       <c r="A92" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -17222,7 +17280,7 @@
     </row>
     <row r="93" spans="1:67" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -17403,7 +17461,7 @@
   <dimension ref="A1:CO100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AS100" sqref="AS100"/>
+      <selection activeCell="AS100" sqref="A1:CO100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17414,280 +17472,280 @@
   <sheetData>
     <row r="1" spans="1:93" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" t="s">
         <v>291</v>
-      </c>
-      <c r="C1" t="s">
-        <v>292</v>
       </c>
       <c r="D1" t="s">
         <v>67</v>
       </c>
       <c r="E1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F1" t="s">
         <v>293</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>294</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>295</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>296</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>297</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>298</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>299</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>300</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>301</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>302</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>303</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>305</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
+        <v>618</v>
+      </c>
+      <c r="T1" t="s">
+        <v>619</v>
+      </c>
+      <c r="U1" t="s">
+        <v>620</v>
+      </c>
+      <c r="V1" t="s">
         <v>306</v>
       </c>
-      <c r="S1" t="s">
-        <v>619</v>
-      </c>
-      <c r="T1" t="s">
-        <v>620</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>307</v>
+      </c>
+      <c r="X1" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>115</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>118</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>319</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>324</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>325</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>326</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>328</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>329</v>
+      </c>
+      <c r="BV1" t="s">
         <v>621</v>
       </c>
-      <c r="V1" t="s">
-        <v>307</v>
-      </c>
-      <c r="W1" t="s">
-        <v>308</v>
-      </c>
-      <c r="X1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>310</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>115</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>118</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>119</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>315</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>316</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>317</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>318</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>319</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>320</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>321</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>322</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>323</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>324</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>325</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>326</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>319</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>329</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>330</v>
-      </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>622</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BX1" t="s">
         <v>623</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>624</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>625</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CA1" t="s">
         <v>626</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CB1" t="s">
         <v>627</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CC1" t="s">
         <v>628</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CD1" t="s">
         <v>629</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CE1" t="s">
         <v>630</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CF1" t="s">
         <v>631</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CG1" t="s">
         <v>632</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CH1" t="s">
         <v>633</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CI1" t="s">
         <v>634</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CJ1" t="s">
         <v>635</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CK1" t="s">
         <v>636</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CL1" t="s">
         <v>637</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CM1" t="s">
         <v>638</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CN1" t="s">
         <v>639</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CO1" t="s">
         <v>640</v>
-      </c>
-      <c r="CO1" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:93" x14ac:dyDescent="0.2">
@@ -20351,7 +20409,7 @@
     </row>
     <row r="13" spans="1:93" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -22562,7 +22620,7 @@
     </row>
     <row r="34" spans="1:93" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -31450,14 +31508,14 @@
         <v>0</v>
       </c>
       <c r="AO76" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP76" t="str">
         <f>AO76&amp;AN76&amp;AO76</f>
         <v>'资产简称'</v>
       </c>
       <c r="AQ76" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR76" t="str">
         <f>AP76&amp;AQ76</f>
@@ -31473,14 +31531,14 @@
         <v>1</v>
       </c>
       <c r="AO77" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP77" t="str">
         <f t="shared" ref="AP77:AP100" si="0">AO77&amp;AN77&amp;AO77</f>
         <v>'资产全称'</v>
       </c>
       <c r="AQ77" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR77" t="str">
         <f t="shared" ref="AR77:AR100" si="1">AP77&amp;AQ77</f>
@@ -31496,14 +31554,14 @@
         <v>2</v>
       </c>
       <c r="AO78" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP78" t="str">
         <f t="shared" si="0"/>
         <v>'资产大类'</v>
       </c>
       <c r="AQ78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR78" t="str">
         <f t="shared" si="1"/>
@@ -31519,14 +31577,14 @@
         <v>3</v>
       </c>
       <c r="AO79" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP79" t="str">
         <f t="shared" si="0"/>
         <v>'资产类型'</v>
       </c>
       <c r="AQ79" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR79" t="str">
         <f t="shared" si="1"/>
@@ -31542,14 +31600,14 @@
         <v>5</v>
       </c>
       <c r="AO80" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP80" t="str">
         <f t="shared" si="0"/>
         <v>'交易对手'</v>
       </c>
       <c r="AQ80" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR80" t="str">
         <f t="shared" si="1"/>
@@ -31565,14 +31623,14 @@
         <v>7</v>
       </c>
       <c r="AO81" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP81" t="str">
         <f t="shared" si="0"/>
         <v>'购买成本'</v>
       </c>
       <c r="AQ81" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR81" t="str">
         <f t="shared" si="1"/>
@@ -31588,14 +31646,14 @@
         <v>8</v>
       </c>
       <c r="AO82" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP82" t="str">
         <f t="shared" si="0"/>
         <v>'认可价值'</v>
       </c>
       <c r="AQ82" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR82" t="str">
         <f t="shared" si="1"/>
@@ -31611,14 +31669,14 @@
         <v>9</v>
       </c>
       <c r="AO83" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP83" t="str">
         <f t="shared" si="0"/>
         <v>'应收利息'</v>
       </c>
       <c r="AQ83" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR83" t="str">
         <f t="shared" si="1"/>
@@ -31631,17 +31689,17 @@
     </row>
     <row r="84" spans="40:45" x14ac:dyDescent="0.2">
       <c r="AN84" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AO84" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP84" t="str">
         <f t="shared" si="0"/>
         <v>'账户'</v>
       </c>
       <c r="AQ84" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR84" t="str">
         <f t="shared" si="1"/>
@@ -31657,14 +31715,14 @@
         <v>47</v>
       </c>
       <c r="AO85" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP85" t="str">
         <f t="shared" si="0"/>
         <v>'存款银行类型'</v>
       </c>
       <c r="AQ85" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR85" t="str">
         <f t="shared" si="1"/>
@@ -31680,14 +31738,14 @@
         <v>48</v>
       </c>
       <c r="AO86" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP86" t="str">
         <f t="shared" si="0"/>
         <v>'银行资本充足率'</v>
       </c>
       <c r="AQ86" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR86" t="str">
         <f t="shared" si="1"/>
@@ -31703,14 +31761,14 @@
         <v>64</v>
       </c>
       <c r="AO87" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP87" t="str">
         <f t="shared" si="0"/>
         <v>'资产五大类分类'</v>
       </c>
       <c r="AQ87" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR87" t="str">
         <f t="shared" si="1"/>
@@ -31723,14 +31781,14 @@
     </row>
     <row r="88" spans="40:45" x14ac:dyDescent="0.2">
       <c r="AO88" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP88" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="AQ88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR88" t="str">
         <f t="shared" si="1"/>
@@ -31739,14 +31797,14 @@
     </row>
     <row r="89" spans="40:45" x14ac:dyDescent="0.2">
       <c r="AO89" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP89" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="AQ89" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR89" t="str">
         <f t="shared" si="1"/>
@@ -31755,14 +31813,14 @@
     </row>
     <row r="90" spans="40:45" x14ac:dyDescent="0.2">
       <c r="AO90" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP90" t="str">
         <f t="shared" si="0"/>
         <v>''</v>
       </c>
       <c r="AQ90" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR90" t="str">
         <f t="shared" si="1"/>
@@ -31774,14 +31832,14 @@
         <v>0</v>
       </c>
       <c r="AO91" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP91" t="str">
         <f t="shared" si="0"/>
         <v>'资产简称'</v>
       </c>
       <c r="AQ91" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR91" t="str">
         <f t="shared" si="1"/>
@@ -31797,14 +31855,14 @@
         <v>1</v>
       </c>
       <c r="AO92" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP92" t="str">
         <f t="shared" si="0"/>
         <v>'资产全称'</v>
       </c>
       <c r="AQ92" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR92" t="str">
         <f t="shared" si="1"/>
@@ -31820,14 +31878,14 @@
         <v>2</v>
       </c>
       <c r="AO93" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP93" t="str">
         <f t="shared" si="0"/>
         <v>'资产大类'</v>
       </c>
       <c r="AQ93" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR93" t="str">
         <f t="shared" si="1"/>
@@ -31843,14 +31901,14 @@
         <v>3</v>
       </c>
       <c r="AO94" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP94" t="str">
         <f t="shared" si="0"/>
         <v>'资产类型'</v>
       </c>
       <c r="AQ94" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR94" t="str">
         <f t="shared" si="1"/>
@@ -31866,14 +31924,14 @@
         <v>5</v>
       </c>
       <c r="AO95" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP95" t="str">
         <f t="shared" si="0"/>
         <v>'交易对手'</v>
       </c>
       <c r="AQ95" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR95" t="str">
         <f t="shared" si="1"/>
@@ -31889,14 +31947,14 @@
         <v>7</v>
       </c>
       <c r="AO96" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP96" t="str">
         <f t="shared" si="0"/>
         <v>'购买成本'</v>
       </c>
       <c r="AQ96" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR96" t="str">
         <f t="shared" si="1"/>
@@ -31912,14 +31970,14 @@
         <v>8</v>
       </c>
       <c r="AO97" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP97" t="str">
         <f t="shared" si="0"/>
         <v>'认可价值'</v>
       </c>
       <c r="AQ97" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR97" t="str">
         <f t="shared" si="1"/>
@@ -31935,14 +31993,14 @@
         <v>9</v>
       </c>
       <c r="AO98" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP98" t="str">
         <f t="shared" si="0"/>
         <v>'应收利息'</v>
       </c>
       <c r="AQ98" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR98" t="str">
         <f t="shared" si="1"/>
@@ -31955,17 +32013,17 @@
     </row>
     <row r="99" spans="40:45" x14ac:dyDescent="0.2">
       <c r="AN99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AO99" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP99" t="str">
         <f t="shared" si="0"/>
         <v>'账户'</v>
       </c>
       <c r="AQ99" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AR99" t="str">
         <f t="shared" si="1"/>
@@ -31981,7 +32039,7 @@
         <v>64</v>
       </c>
       <c r="AO100" s="46" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AP100" t="str">
         <f t="shared" si="0"/>
@@ -32012,74 +32070,74 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309BF2FC-10F7-467C-BC44-9E4E3CF455A2}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="B12" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32091,7 +32149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B948AA-2512-42C8-9D7C-424C6A2D3F76}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:B83"/>
     </sheetView>
   </sheetViews>
@@ -32099,666 +32157,666 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" t="s">
         <v>476</v>
-      </c>
-      <c r="B1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" t="s">
         <v>478</v>
-      </c>
-      <c r="B2" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" t="s">
         <v>480</v>
-      </c>
-      <c r="B3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" t="s">
         <v>482</v>
-      </c>
-      <c r="B4" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B5" t="s">
         <v>484</v>
-      </c>
-      <c r="B5" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" t="s">
         <v>486</v>
-      </c>
-      <c r="B6" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" t="s">
         <v>488</v>
-      </c>
-      <c r="B7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B8" t="s">
         <v>490</v>
-      </c>
-      <c r="B8" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" t="s">
         <v>492</v>
-      </c>
-      <c r="B9" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B10" t="s">
         <v>494</v>
-      </c>
-      <c r="B10" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B11" t="s">
         <v>496</v>
-      </c>
-      <c r="B11" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B12" t="s">
         <v>498</v>
-      </c>
-      <c r="B12" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" t="s">
         <v>500</v>
-      </c>
-      <c r="B13" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>501</v>
+      </c>
+      <c r="B14" t="s">
         <v>502</v>
-      </c>
-      <c r="B14" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" t="s">
         <v>504</v>
-      </c>
-      <c r="B15" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" t="s">
         <v>506</v>
-      </c>
-      <c r="B16" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>507</v>
+      </c>
+      <c r="B17" t="s">
         <v>508</v>
-      </c>
-      <c r="B17" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>510</v>
+      </c>
+      <c r="B19" t="s">
         <v>511</v>
-      </c>
-      <c r="B19" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B20" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>513</v>
+      </c>
+      <c r="B21" t="s">
         <v>514</v>
-      </c>
-      <c r="B21" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B23" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>517</v>
+      </c>
+      <c r="B24" t="s">
         <v>518</v>
-      </c>
-      <c r="B24" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B29" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B30" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>525</v>
+      </c>
+      <c r="B31" t="s">
         <v>526</v>
-      </c>
-      <c r="B31" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>528</v>
+      </c>
+      <c r="B33" t="s">
         <v>529</v>
-      </c>
-      <c r="B33" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>530</v>
+      </c>
+      <c r="B34" t="s">
         <v>531</v>
-      </c>
-      <c r="B34" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>533</v>
+      </c>
+      <c r="B36" t="s">
         <v>534</v>
-      </c>
-      <c r="B36" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>535</v>
+      </c>
+      <c r="B37" t="s">
         <v>536</v>
-      </c>
-      <c r="B37" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>537</v>
+      </c>
+      <c r="B38" t="s">
         <v>538</v>
-      </c>
-      <c r="B38" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>539</v>
+      </c>
+      <c r="B39" t="s">
         <v>540</v>
-      </c>
-      <c r="B39" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>541</v>
+      </c>
+      <c r="B40" t="s">
         <v>542</v>
-      </c>
-      <c r="B40" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>543</v>
+      </c>
+      <c r="B41" t="s">
         <v>544</v>
-      </c>
-      <c r="B41" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>545</v>
+      </c>
+      <c r="B42" t="s">
         <v>546</v>
-      </c>
-      <c r="B42" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>548</v>
+      </c>
+      <c r="B44" t="s">
         <v>549</v>
-      </c>
-      <c r="B44" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>550</v>
+      </c>
+      <c r="B45" t="s">
         <v>551</v>
-      </c>
-      <c r="B45" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>553</v>
+      </c>
+      <c r="B47" t="s">
         <v>554</v>
-      </c>
-      <c r="B47" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>555</v>
+      </c>
+      <c r="B48" t="s">
         <v>556</v>
-      </c>
-      <c r="B48" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>557</v>
+      </c>
+      <c r="B49" t="s">
         <v>558</v>
-      </c>
-      <c r="B49" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>559</v>
+      </c>
+      <c r="B50" t="s">
         <v>560</v>
-      </c>
-      <c r="B50" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>561</v>
+      </c>
+      <c r="B51" t="s">
         <v>562</v>
-      </c>
-      <c r="B51" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>563</v>
+      </c>
+      <c r="B52" t="s">
         <v>564</v>
-      </c>
-      <c r="B52" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>565</v>
+      </c>
+      <c r="B53" t="s">
         <v>566</v>
-      </c>
-      <c r="B53" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>567</v>
+      </c>
+      <c r="B54" t="s">
         <v>568</v>
-      </c>
-      <c r="B54" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>569</v>
+      </c>
+      <c r="B55" t="s">
         <v>570</v>
-      </c>
-      <c r="B55" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>571</v>
+      </c>
+      <c r="B56" t="s">
         <v>572</v>
-      </c>
-      <c r="B56" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>573</v>
+      </c>
+      <c r="B57" t="s">
         <v>574</v>
-      </c>
-      <c r="B57" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>575</v>
+      </c>
+      <c r="B58" t="s">
         <v>576</v>
-      </c>
-      <c r="B58" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>577</v>
+      </c>
+      <c r="B59" t="s">
         <v>578</v>
-      </c>
-      <c r="B59" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>579</v>
+      </c>
+      <c r="B60" t="s">
         <v>580</v>
-      </c>
-      <c r="B60" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>581</v>
+      </c>
+      <c r="B61" t="s">
         <v>582</v>
-      </c>
-      <c r="B61" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>583</v>
+      </c>
+      <c r="B62" t="s">
         <v>584</v>
-      </c>
-      <c r="B62" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>585</v>
+      </c>
+      <c r="B63" t="s">
         <v>586</v>
-      </c>
-      <c r="B63" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B64" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B65" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>589</v>
+      </c>
+      <c r="B66" t="s">
         <v>590</v>
-      </c>
-      <c r="B66" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>591</v>
+      </c>
+      <c r="B67" t="s">
         <v>592</v>
-      </c>
-      <c r="B67" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>593</v>
+      </c>
+      <c r="B68" t="s">
         <v>594</v>
-      </c>
-      <c r="B68" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>595</v>
+      </c>
+      <c r="B69" t="s">
         <v>596</v>
-      </c>
-      <c r="B69" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>597</v>
+      </c>
+      <c r="B70" t="s">
         <v>598</v>
-      </c>
-      <c r="B70" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>599</v>
+      </c>
+      <c r="B71" t="s">
         <v>600</v>
-      </c>
-      <c r="B71" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B72" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>602</v>
+      </c>
+      <c r="B73" t="s">
         <v>603</v>
-      </c>
-      <c r="B73" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>607</v>
+      </c>
+      <c r="B77" t="s">
         <v>608</v>
-      </c>
-      <c r="B77" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>609</v>
+      </c>
+      <c r="B78" t="s">
         <v>610</v>
-      </c>
-      <c r="B78" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>611</v>
+      </c>
+      <c r="B79" t="s">
         <v>612</v>
-      </c>
-      <c r="B79" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>613</v>
+      </c>
+      <c r="B80" t="s">
         <v>614</v>
-      </c>
-      <c r="B80" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B81" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B82" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B83" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -32771,8 +32829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7759C919-160B-4268-AECB-5C44394C2A9C}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B66"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32785,10 +32843,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -32799,7 +32857,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -32810,7 +32868,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -32821,7 +32879,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -32829,10 +32887,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -32843,7 +32901,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -32854,7 +32912,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -32868,7 +32926,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -32879,10 +32937,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -32896,7 +32954,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -32910,7 +32968,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -32924,7 +32982,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -32932,10 +32990,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -32946,7 +33004,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -32954,10 +33012,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -32968,7 +33026,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -32976,10 +33034,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -32990,7 +33048,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -33007,7 +33065,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -33018,7 +33076,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -33032,7 +33090,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D21">
         <v>-100000</v>
@@ -33046,7 +33104,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -33060,7 +33118,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -33071,7 +33129,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -33082,7 +33140,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -33093,7 +33151,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -33104,7 +33162,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -33118,10 +33176,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -33132,7 +33190,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -33143,7 +33201,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -33151,10 +33209,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D31">
         <v>-2</v>
@@ -33168,10 +33226,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32">
         <v>-2</v>
@@ -33185,10 +33243,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D33">
         <v>-2</v>
@@ -33202,10 +33260,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D34">
         <v>-2</v>
@@ -33219,10 +33277,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35">
         <v>-2</v>
@@ -33239,7 +33297,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -33250,7 +33308,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -33258,10 +33316,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -33275,7 +33333,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -33286,7 +33344,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -33297,7 +33355,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -33314,7 +33372,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -33328,7 +33386,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -33339,7 +33397,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -33350,7 +33408,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -33358,10 +33416,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -33372,10 +33430,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -33383,10 +33441,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -33397,7 +33455,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -33408,7 +33466,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D50">
         <v>-2</v>
@@ -33425,7 +33483,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -33442,7 +33500,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -33453,7 +33511,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -33470,7 +33528,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -33481,7 +33539,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -33492,7 +33550,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -33503,7 +33561,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -33514,7 +33572,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -33531,7 +33589,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -33542,7 +33600,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -33553,7 +33611,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -33564,7 +33622,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -33575,7 +33633,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -33586,7 +33644,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -33597,7 +33655,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -33608,15 +33666,15 @@
         <v>64</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B67" s="32" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -33628,16 +33686,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFB8A14-C944-493C-A68B-C2615AC70791}">
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="63" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="15"/>
+    <col min="2" max="2" width="69.25" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="15"/>
     <col min="4" max="4" width="17.25" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="15"/>
     <col min="7" max="7" width="13" style="15" bestFit="1" customWidth="1"/>
@@ -33652,7 +33711,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D1" s="15" t="s">
         <v>24</v>
@@ -33661,10 +33720,10 @@
         <v>25</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>29</v>
@@ -33703,166 +33762,166 @@
         <v>63</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>64</v>
+        <v>681</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>65</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="I2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="N2" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>231</v>
-      </c>
       <c r="O2" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>66</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="I3" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="M3" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>222</v>
-      </c>
       <c r="N3" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N4" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -33873,1021 +33932,1043 @@
         <v>68</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S5" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="T5" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>69</v>
+        <v>685</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>685</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>208</v>
+        <v>671</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>208</v>
+        <v>671</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T8" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>206</v>
-      </c>
       <c r="M9" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N9" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="M10" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="M10" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>205</v>
-      </c>
       <c r="T10" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="M11" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N11" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T11" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>200</v>
-      </c>
       <c r="M12" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T12" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>198</v>
-      </c>
       <c r="M13" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N13" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T13" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="M14" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N14" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="T14" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>193</v>
-      </c>
       <c r="M15" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>191</v>
-      </c>
       <c r="M16" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="T16" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>272</v>
-      </c>
       <c r="M17" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T17" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="M18" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>273</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>273</v>
-      </c>
       <c r="N18" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>272</v>
       </c>
       <c r="M19" s="15" t="s">
         <v>272</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="M20" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="N20" s="15" t="s">
         <v>186</v>
-      </c>
-      <c r="N20" s="15" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="N21" s="15" t="s">
         <v>185</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="N21" s="15" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N24" s="15" t="s">
         <v>181</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="N25" s="15" t="s">
         <v>179</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>658</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N26" s="15" t="s">
         <v>178</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="N27" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="N27" s="15" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="N28" s="15" t="s">
         <v>175</v>
-      </c>
-      <c r="N28" s="15" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="N29" s="15" t="s">
         <v>174</v>
-      </c>
-      <c r="N29" s="15" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="N30" s="15" t="s">
         <v>173</v>
-      </c>
-      <c r="N30" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="N31" s="15" t="s">
         <v>172</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="N31" s="15" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B66" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B73" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>136</v>
+        <v>682</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>144</v>
+        <v>683</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B95" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:T93" xr:uid="{0EFB8A14-C944-493C-A68B-C2615AC70791}"/>
+  <autoFilter ref="A1:T95" xr:uid="{0EFB8A14-C944-493C-A68B-C2615AC70791}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34899,42 +34980,42 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" t="s">
         <v>331</v>
-      </c>
-      <c r="C1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" t="s">
         <v>333</v>
-      </c>
-      <c r="C2" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" t="s">
         <v>333</v>
-      </c>
-      <c r="C3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -34942,409 +35023,409 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
         <v>333</v>
-      </c>
-      <c r="C4" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B49" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B54" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -35359,1674 +35440,1674 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" t="s">
         <v>472</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G1" t="s">
         <v>473</v>
       </c>
-      <c r="F1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>474</v>
       </c>
-      <c r="H1" t="s">
-        <v>475</v>
-      </c>
       <c r="I1" t="s">
+        <v>659</v>
+      </c>
+      <c r="J1" t="s">
         <v>660</v>
-      </c>
-      <c r="J1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D2" s="34" t="s">
         <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I3" s="23" t="s">
         <v>68</v>
       </c>
       <c r="J3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" s="35" t="s">
         <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>69</v>
+        <v>684</v>
       </c>
       <c r="J4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F5" s="44" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>69</v>
+        <v>684</v>
       </c>
       <c r="E6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I6" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J6" s="23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" s="44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F9" s="44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J12" s="48" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F13" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J15" s="23" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J16" s="23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F17" s="45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G18" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H18" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F19" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>466</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>398</v>
+      </c>
+      <c r="G20" t="s">
+        <v>441</v>
+      </c>
+      <c r="H20" t="s">
         <v>464</v>
       </c>
-      <c r="C20" t="s">
-        <v>374</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" t="s">
-        <v>467</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="G20" t="s">
-        <v>442</v>
-      </c>
-      <c r="H20" t="s">
-        <v>465</v>
-      </c>
       <c r="I20" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F22" s="45" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I23" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J23" s="48" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F24" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J24" s="48" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I25" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J25" s="48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G26" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I26" s="23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J26" s="48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I27" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J27" s="48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F28" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H28" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J28" s="48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F31" s="44" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G31" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F32" s="44" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H32" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E33" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H33" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H34" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F36" s="45" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H36" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F37" s="45" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D38" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F38" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H38" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D39" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F39" s="45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H39" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D40" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F40" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H40" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D41" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D42" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F42" s="45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D43" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F43" s="45" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D44" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F44" s="45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D45" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F45" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D46" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E46" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F46" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.2">
       <c r="D47" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D48" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I48" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D49" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D50" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D51" s="35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E51" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D52" s="35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D53" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D54" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E55" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D56" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D57" s="35" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D58" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D59" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D60" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D61" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D62" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E62" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D63" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E63" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D64" s="35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D65" s="35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E65" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D66" s="35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D67" s="35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D68" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E68" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D69" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D70" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D71" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E71" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D72" s="35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E72" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D73" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D74" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D75" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E75" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D76" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D77" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D78" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D79" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E79" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D80" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D81" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D82" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D83" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D84" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E84" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D85" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E85" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D86" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D87" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D88" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D89" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E89" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D90" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D91" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E91" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D92" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="4:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D93" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -37034,4 +37115,227 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B224B1-BB5A-4A7D-9993-2DB11EC08E61}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1" t="s">
+        <v>677</v>
+      </c>
+      <c r="I1" t="s">
+        <v>677</v>
+      </c>
+      <c r="J1" t="s">
+        <v>677</v>
+      </c>
+      <c r="K1" t="s">
+        <v>677</v>
+      </c>
+      <c r="L1" t="s">
+        <v>677</v>
+      </c>
+      <c r="M1" t="s">
+        <v>678</v>
+      </c>
+      <c r="N1" t="s">
+        <v>678</v>
+      </c>
+      <c r="O1" t="s">
+        <v>678</v>
+      </c>
+      <c r="P1" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>672</v>
+      </c>
+      <c r="H2" s="49" t="s">
+        <v>676</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>673</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" t="s">
+        <v>679</v>
+      </c>
+      <c r="N2" s="49" t="s">
+        <v>259</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="M3" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="N4" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="N5" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N6" s="49" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N7" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="15"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P9" s="15"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P12" s="15"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P14" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>